--- a/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="574">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1808,6 +1808,33 @@
   </si>
   <si>
     <t>10/31 , 11/3,6/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/4,12,28/2023</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>3/1,2,21,24/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>1/2,3,17/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
   </si>
 </sst>
 </file>
@@ -2517,8 +2544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K718" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K718"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K730"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2847,12 +2874,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K718"/>
+  <dimension ref="A2:K730"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A680" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A659" activePane="bottomLeft"/>
       <selection activeCell="O15" sqref="O15"/>
-      <selection pane="bottomLeft" activeCell="H688" sqref="H688"/>
+      <selection pane="bottomLeft" activeCell="E669" sqref="E669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3046,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>165.33589999999998</v>
+        <v>138.34189999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3029,7 +3056,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261.86800000000005</v>
+        <v>249.36800000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17450,45 +17477,41 @@
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40">
-        <v>44985</v>
-      </c>
+      <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C663" s="13">
-        <v>1.25</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C663" s="13"/>
       <c r="D663" s="39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
       <c r="K663" s="20" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B664" s="20"/>
-      <c r="C664" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D664" s="39"/>
+      <c r="A664" s="40"/>
+      <c r="B664" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="C664" s="13"/>
+      <c r="D664" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G664" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
@@ -17497,13 +17520,17 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B665" s="20"/>
+        <v>44985</v>
+      </c>
+      <c r="B665" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="C665" s="13">
         <v>1.25</v>
       </c>
-      <c r="D665" s="39"/>
+      <c r="D665" s="39">
+        <v>6</v>
+      </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
       <c r="G665" s="42">
@@ -17513,22 +17540,24 @@
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
+      <c r="K665" s="20" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B666" s="20"/>
-      <c r="C666" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D666" s="39"/>
+      <c r="A666" s="40"/>
+      <c r="B666" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="C666" s="13"/>
+      <c r="D666" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
@@ -17537,10 +17566,10 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B667" s="20" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="C667" s="13">
         <v>1.25</v>
@@ -17558,42 +17587,42 @@
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
       <c r="K667" s="20" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40">
-        <v>45138</v>
-      </c>
+      <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C668" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D668" s="39"/>
+        <v>481</v>
+      </c>
+      <c r="C668" s="13"/>
+      <c r="D668" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G668" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="49">
-        <v>45120</v>
-      </c>
+      <c r="K668" s="20"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B669" s="20"/>
+        <v>45046</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>567</v>
+      </c>
       <c r="C669" s="13">
         <v>1.25</v>
       </c>
-      <c r="D669" s="39"/>
+      <c r="D669" s="39">
+        <v>3</v>
+      </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
       <c r="G669" s="42">
@@ -17603,21 +17632,19 @@
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="20" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B670" s="20" t="s">
-        <v>560</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="B670" s="20"/>
       <c r="C670" s="13">
         <v>1.25</v>
       </c>
-      <c r="D670" s="39">
-        <v>15</v>
-      </c>
+      <c r="D670" s="39"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
       <c r="G670" s="42">
@@ -17627,19 +17654,21 @@
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="20" t="s">
-        <v>561</v>
-      </c>
+      <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B671" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B671" s="20" t="s">
+        <v>514</v>
+      </c>
       <c r="C671" s="13">
         <v>1.25</v>
       </c>
-      <c r="D671" s="39"/>
+      <c r="D671" s="39">
+        <v>4</v>
+      </c>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
       <c r="G671" s="42">
@@ -17649,22 +17678,24 @@
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20"/>
+      <c r="K671" s="20" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B672" s="20"/>
-      <c r="C672" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D672" s="39"/>
+      <c r="A672" s="40"/>
+      <c r="B672" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C672" s="13"/>
+      <c r="D672" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G672" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H672" s="39"/>
       <c r="I672" s="9"/>
@@ -17673,9 +17704,11 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B673" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B673" s="20" t="s">
+        <v>379</v>
+      </c>
       <c r="C673" s="13">
         <v>1.25</v>
       </c>
@@ -17689,55 +17722,65 @@
       <c r="H673" s="39"/>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20"/>
+      <c r="K673" s="49">
+        <v>45120</v>
+      </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="B674" s="20"/>
+      <c r="A674" s="40"/>
+      <c r="B674" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="C674" s="13"/>
-      <c r="D674" s="39"/>
+      <c r="D674" s="39">
+        <v>1</v>
+      </c>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
-      <c r="G674" s="42" t="str">
+      <c r="G674" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H674" s="39"/>
       <c r="I674" s="9"/>
       <c r="J674" s="11"/>
-      <c r="K674" s="20"/>
+      <c r="K674" s="49">
+        <v>45127</v>
+      </c>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B675" s="20"/>
-      <c r="C675" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D675" s="39"/>
+      <c r="A675" s="40"/>
+      <c r="B675" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C675" s="13"/>
+      <c r="D675" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G675" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H675" s="39"/>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
-      <c r="K675" s="20"/>
+      <c r="K675" s="49"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B676" s="20"/>
+        <v>45169</v>
+      </c>
+      <c r="B676" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="C676" s="13">
         <v>1.25</v>
       </c>
-      <c r="D676" s="39"/>
+      <c r="D676" s="39">
+        <v>1</v>
+      </c>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
       <c r="G676" s="42">
@@ -17747,37 +17790,43 @@
       <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
-      <c r="K676" s="20"/>
+      <c r="K676" s="49">
+        <v>45147</v>
+      </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B677" s="20"/>
-      <c r="C677" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D677" s="39"/>
+      <c r="A677" s="40"/>
+      <c r="B677" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C677" s="13"/>
+      <c r="D677" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
-      <c r="G677" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G677" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H677" s="39"/>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20"/>
+      <c r="K677" s="49"/>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B678" s="20"/>
+        <v>45199</v>
+      </c>
+      <c r="B678" s="20" t="s">
+        <v>560</v>
+      </c>
       <c r="C678" s="13">
         <v>1.25</v>
       </c>
-      <c r="D678" s="39"/>
+      <c r="D678" s="39">
+        <v>15</v>
+      </c>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
       <c r="G678" s="42">
@@ -17787,22 +17836,24 @@
       <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
-      <c r="K678" s="20"/>
+      <c r="K678" s="20" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40">
-        <v>45443</v>
-      </c>
-      <c r="B679" s="20"/>
-      <c r="C679" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D679" s="39"/>
+      <c r="A679" s="40"/>
+      <c r="B679" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C679" s="13"/>
+      <c r="D679" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G679" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H679" s="39"/>
       <c r="I679" s="9"/>
@@ -17811,9 +17862,11 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45473</v>
-      </c>
-      <c r="B680" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B680" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="C680" s="13">
         <v>1.25</v>
       </c>
@@ -17824,25 +17877,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H680" s="39"/>
+      <c r="H680" s="39">
+        <v>3</v>
+      </c>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
-      <c r="K680" s="20"/>
+      <c r="K680" s="20" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="40">
-        <v>45504</v>
-      </c>
-      <c r="B681" s="20"/>
-      <c r="C681" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D681" s="39"/>
+      <c r="A681" s="40"/>
+      <c r="B681" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C681" s="13"/>
+      <c r="D681" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
-      <c r="G681" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G681" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H681" s="39"/>
       <c r="I681" s="9"/>
@@ -17851,13 +17908,17 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45535</v>
-      </c>
-      <c r="B682" s="20"/>
+        <v>45260</v>
+      </c>
+      <c r="B682" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="C682" s="13">
         <v>1.25</v>
       </c>
-      <c r="D682" s="39"/>
+      <c r="D682" s="39">
+        <v>1</v>
+      </c>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
       <c r="G682" s="42">
@@ -17867,71 +17928,80 @@
       <c r="H682" s="39"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="20"/>
+      <c r="K682" s="49">
+        <v>45250</v>
+      </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40">
-        <v>45565</v>
-      </c>
-      <c r="B683" s="20"/>
-      <c r="C683" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D683" s="39"/>
+      <c r="A683" s="40"/>
+      <c r="B683" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C683" s="13"/>
+      <c r="D683" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
-      <c r="K683" s="20"/>
+      <c r="K683" s="49"/>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45596</v>
+        <v>45291</v>
       </c>
       <c r="B684" s="20" t="s">
-        <v>409</v>
+        <v>549</v>
       </c>
       <c r="C684" s="13">
         <v>1.25</v>
       </c>
-      <c r="D684" s="39"/>
+      <c r="D684" s="39">
+        <v>1</v>
+      </c>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
       <c r="G684" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H684" s="39">
-        <v>3</v>
-      </c>
+      <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
-      <c r="K684" s="20" t="s">
-        <v>564</v>
+      <c r="K684" s="49">
+        <v>45266</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="40">
-        <v>45616</v>
-      </c>
-      <c r="B685" s="20"/>
+      <c r="A685" s="40"/>
+      <c r="B685" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="C685" s="13"/>
-      <c r="D685" s="39"/>
+      <c r="D685" s="39">
+        <v>0.14800000000000002</v>
+      </c>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="42"/>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
-      <c r="K685" s="20"/>
+      <c r="K685" s="49"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40"/>
+      <c r="A686" s="48" t="s">
+        <v>562</v>
+      </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
       <c r="D686" s="39"/>
@@ -17947,7 +18017,9 @@
       <c r="K686" s="20"/>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" s="40"/>
+      <c r="A687" s="40">
+        <v>45322</v>
+      </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
       <c r="D687" s="39"/>
@@ -17963,7 +18035,9 @@
       <c r="K687" s="20"/>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" s="40"/>
+      <c r="A688" s="40">
+        <v>45351</v>
+      </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
       <c r="D688" s="39"/>
@@ -17979,7 +18053,9 @@
       <c r="K688" s="20"/>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" s="40"/>
+      <c r="A689" s="40">
+        <v>45382</v>
+      </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
       <c r="D689" s="39"/>
@@ -17995,7 +18071,9 @@
       <c r="K689" s="20"/>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40"/>
+      <c r="A690" s="40">
+        <v>45412</v>
+      </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
       <c r="D690" s="39"/>
@@ -18011,7 +18089,9 @@
       <c r="K690" s="20"/>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A691" s="40"/>
+      <c r="A691" s="40">
+        <v>45443</v>
+      </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
       <c r="D691" s="39"/>
@@ -18027,7 +18107,9 @@
       <c r="K691" s="20"/>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" s="40"/>
+      <c r="A692" s="40">
+        <v>45473</v>
+      </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
       <c r="D692" s="39"/>
@@ -18043,7 +18125,9 @@
       <c r="K692" s="20"/>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40"/>
+      <c r="A693" s="40">
+        <v>45504</v>
+      </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -18059,7 +18143,9 @@
       <c r="K693" s="20"/>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A694" s="40"/>
+      <c r="A694" s="40">
+        <v>45535</v>
+      </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
       <c r="D694" s="39"/>
@@ -18075,7 +18161,9 @@
       <c r="K694" s="20"/>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A695" s="40"/>
+      <c r="A695" s="40">
+        <v>45565</v>
+      </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
       <c r="D695" s="39"/>
@@ -18091,7 +18179,9 @@
       <c r="K695" s="20"/>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" s="40"/>
+      <c r="A696" s="40">
+        <v>45596</v>
+      </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
       <c r="D696" s="39"/>
@@ -18107,16 +18197,15 @@
       <c r="K696" s="20"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="40"/>
+      <c r="A697" s="40">
+        <v>45616</v>
+      </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G697" s="42"/>
       <c r="H697" s="39"/>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
@@ -18443,20 +18532,212 @@
       <c r="K717" s="20"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="41"/>
-      <c r="B718" s="15"/>
-      <c r="C718" s="42"/>
-      <c r="D718" s="43"/>
-      <c r="E718" s="50"/>
-      <c r="F718" s="15"/>
+      <c r="A718" s="40"/>
+      <c r="B718" s="20"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="39"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="20"/>
       <c r="G718" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H718" s="43"/>
-      <c r="I718" s="50"/>
-      <c r="J718" s="12"/>
-      <c r="K718" s="15"/>
+      <c r="H718" s="39"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="20"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="40"/>
+      <c r="B719" s="20"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="39"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="20"/>
+      <c r="G719" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="39"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="11"/>
+      <c r="K719" s="20"/>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A720" s="40"/>
+      <c r="B720" s="20"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="39"/>
+      <c r="E720" s="9"/>
+      <c r="F720" s="20"/>
+      <c r="G720" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H720" s="39"/>
+      <c r="I720" s="9"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="40"/>
+      <c r="B721" s="20"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="20"/>
+      <c r="G721" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="39"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20"/>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="40"/>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="40"/>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="40"/>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="40"/>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="40"/>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="40"/>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="40"/>
+      <c r="B728" s="20"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" s="40"/>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" s="41"/>
+      <c r="B730" s="15"/>
+      <c r="C730" s="42"/>
+      <c r="D730" s="43"/>
+      <c r="E730" s="50"/>
+      <c r="F730" s="15"/>
+      <c r="G730" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="43"/>
+      <c r="I730" s="50"/>
+      <c r="J730" s="12"/>
+      <c r="K730" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18503,7 +18784,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18569,14 +18850,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.127</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -18625,7 +18906,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>427.20390000000003</v>
+        <v>387.7099</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="574">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2544,8 +2544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K730"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K729" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K729"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2874,12 +2874,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K730"/>
+  <dimension ref="A2:K729"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A659" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A665" activePane="bottomLeft"/>
       <selection activeCell="O15" sqref="O15"/>
-      <selection pane="bottomLeft" activeCell="E669" sqref="E669"/>
+      <selection pane="bottomLeft" activeCell="D687" sqref="D687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,7 +3046,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>138.34189999999995</v>
+        <v>139.34189999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17957,13 +17957,13 @@
         <v>45291</v>
       </c>
       <c r="B684" s="20" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="C684" s="13">
         <v>1.25</v>
       </c>
       <c r="D684" s="39">
-        <v>1</v>
+        <v>0.14800000000000002</v>
       </c>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
@@ -17974,33 +17974,29 @@
       <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
-      <c r="K684" s="49">
-        <v>45266</v>
-      </c>
+      <c r="K684" s="49"/>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="40"/>
-      <c r="B685" s="20" t="s">
-        <v>446</v>
-      </c>
+      <c r="A685" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="B685" s="20"/>
       <c r="C685" s="13"/>
-      <c r="D685" s="39">
-        <v>0.14800000000000002</v>
-      </c>
+      <c r="D685" s="39"/>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="13" t="str">
+      <c r="G685" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
-      <c r="K685" s="49"/>
+      <c r="K685" s="20"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="48" t="s">
-        <v>562</v>
+      <c r="A686" s="40">
+        <v>45322</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18018,7 +18014,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18036,7 +18032,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18054,7 +18050,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18072,7 +18068,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18090,7 +18086,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18108,7 +18104,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18126,7 +18122,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18144,7 +18140,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18162,7 +18158,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18180,32 +18176,30 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45596</v>
+        <v>45616</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
       <c r="D696" s="39"/>
       <c r="E696" s="9"/>
       <c r="F696" s="20"/>
-      <c r="G696" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G696" s="42"/>
       <c r="H696" s="39"/>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="40">
-        <v>45616</v>
-      </c>
+      <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="42"/>
+      <c r="G697" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H697" s="39"/>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
@@ -18708,36 +18702,20 @@
       <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40"/>
-      <c r="B729" s="20"/>
-      <c r="C729" s="13"/>
-      <c r="D729" s="39"/>
-      <c r="E729" s="9"/>
-      <c r="F729" s="20"/>
+      <c r="A729" s="41"/>
+      <c r="B729" s="15"/>
+      <c r="C729" s="42"/>
+      <c r="D729" s="43"/>
+      <c r="E729" s="50"/>
+      <c r="F729" s="15"/>
       <c r="G729" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H729" s="39"/>
-      <c r="I729" s="9"/>
-      <c r="J729" s="11"/>
-      <c r="K729" s="20"/>
-    </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="41"/>
-      <c r="B730" s="15"/>
-      <c r="C730" s="42"/>
-      <c r="D730" s="43"/>
-      <c r="E730" s="50"/>
-      <c r="F730" s="15"/>
-      <c r="G730" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H730" s="43"/>
-      <c r="I730" s="50"/>
-      <c r="J730" s="12"/>
-      <c r="K730" s="15"/>
+      <c r="H729" s="43"/>
+      <c r="I729" s="50"/>
+      <c r="J729" s="12"/>
+      <c r="K729" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18906,7 +18884,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>387.7099</v>
+        <v>388.7099</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53150F13-93D9-490E-A296-0DA5C6753F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1840,7 +1841,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2527,7 +2528,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2544,26 +2545,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K729" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K729"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K729" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K729" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2870,34 +2871,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K729"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A665" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A683" activePane="bottomLeft"/>
       <selection activeCell="O15" sqref="O15"/>
-      <selection pane="bottomLeft" activeCell="D687" sqref="D687"/>
+      <selection pane="bottomLeft" activeCell="E689" sqref="E689"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2920,7 +2921,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2943,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2965,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2972,7 +2973,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2985,7 +2986,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -3002,7 +3003,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3046,7 +3047,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>139.34189999999995</v>
+        <v>152.67489999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3056,12 +3057,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>249.36800000000005</v>
+        <v>261.86800000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>552</v>
       </c>
@@ -3086,7 +3087,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
@@ -3104,7 +3105,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -3124,7 +3125,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>34366</v>
       </c>
@@ -3144,7 +3145,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34394</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34425</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>34455</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3244,7 +3245,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>34486</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>34613</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>34516</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>34614</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>34547</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>34578</v>
       </c>
@@ -3346,7 +3347,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -3366,7 +3367,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>34608</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>34639</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>34669</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>65</v>
       </c>
@@ -3460,7 +3461,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>34700</v>
       </c>
@@ -3482,7 +3483,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>53</v>
@@ -3504,7 +3505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>67</v>
@@ -3528,7 +3529,7 @@
         <v>34851</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>34731</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>70</v>
@@ -3576,7 +3577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>34759</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>74</v>
@@ -3624,7 +3625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>34790</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -3672,7 +3673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>34820</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>80</v>
@@ -3718,7 +3719,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>82</v>
@@ -3740,7 +3741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>34851</v>
       </c>
@@ -3764,7 +3765,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>67</v>
@@ -3786,7 +3787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>34881</v>
       </c>
@@ -3810,7 +3811,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>67</v>
@@ -3832,7 +3833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>34912</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>34980</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>88</v>
@@ -3878,7 +3879,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -3900,7 +3901,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>34943</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>34973</v>
       </c>
@@ -3946,7 +3947,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>35004</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -3994,7 +3995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>35034</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>34831</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>95</v>
@@ -4040,7 +4041,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>61</v>
@@ -4062,7 +4063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>97</v>
       </c>
@@ -4080,7 +4081,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>35065</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>61</v>
@@ -4128,7 +4129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>35096</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>35125</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -4196,7 +4197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>35156</v>
       </c>
@@ -4216,7 +4217,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>35186</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -4260,7 +4261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4280,7 +4281,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>35217</v>
       </c>
@@ -4304,7 +4305,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>35247</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>35278</v>
       </c>
@@ -4350,7 +4351,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>35309</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>35339</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>35370</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>112</v>
@@ -4448,7 +4449,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>35400</v>
       </c>
@@ -4472,7 +4473,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>82</v>
@@ -4494,7 +4495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>115</v>
       </c>
@@ -4512,7 +4513,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>35431</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -4558,7 +4559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>104</v>
@@ -4578,7 +4579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>35462</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>35490</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>35521</v>
       </c>
@@ -4650,7 +4651,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>35551</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>67</v>
@@ -4698,7 +4699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>120</v>
@@ -4720,7 +4721,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>35582</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>35612</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>35643</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>126</v>
@@ -4818,7 +4819,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>35674</v>
       </c>
@@ -4838,7 +4839,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>35704</v>
       </c>
@@ -4862,7 +4863,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>35735</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>129</v>
@@ -4908,7 +4909,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>35765</v>
       </c>
@@ -4930,7 +4931,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>132</v>
@@ -4952,7 +4953,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>133</v>
       </c>
@@ -4970,7 +4971,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>35796</v>
       </c>
@@ -4990,7 +4991,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>35827</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>35855</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>35886</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>35916</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>120</v>
@@ -5111,7 +5112,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>35947</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>35860</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>35977</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5183,7 +5184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36008</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>88</v>
@@ -5231,7 +5232,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36039</v>
       </c>
@@ -5249,7 +5250,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36069</v>
       </c>
@@ -5273,7 +5274,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36100</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36130</v>
       </c>
@@ -5323,7 +5324,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>132</v>
@@ -5343,7 +5344,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>142</v>
       </c>
@@ -5361,7 +5362,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>36161</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>36192</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36220</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>67</v>
@@ -5459,7 +5460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>36251</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>36281</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>150</v>
@@ -5531,7 +5532,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>36312</v>
       </c>
@@ -5555,7 +5556,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>36342</v>
       </c>
@@ -5579,7 +5580,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>36373</v>
       </c>
@@ -5603,7 +5604,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36404</v>
       </c>
@@ -5627,7 +5628,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>36434</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>36474</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>112</v>
@@ -5675,7 +5676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>36465</v>
       </c>
@@ -5699,7 +5700,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>104</v>
@@ -5719,7 +5720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>36495</v>
       </c>
@@ -5743,7 +5744,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="48" t="s">
         <v>158</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>36445</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>36526</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>36557</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>36586</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15" t="s">
         <v>67</v>
@@ -5863,7 +5864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>36617</v>
       </c>
@@ -5885,7 +5886,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>36647</v>
       </c>
@@ -5907,7 +5908,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>36678</v>
       </c>
@@ -5927,7 +5928,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>36708</v>
       </c>
@@ -5947,7 +5948,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>36739</v>
       </c>
@@ -5967,7 +5968,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>36770</v>
       </c>
@@ -5987,7 +5988,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
         <v>36800</v>
       </c>
@@ -6009,7 +6010,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
         <v>36831</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>36861</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>36719</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="s">
         <v>164</v>
       </c>
@@ -6077,7 +6078,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>36892</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>36923</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>148</v>
@@ -6147,7 +6148,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>36951</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>37014</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>112</v>
@@ -6195,7 +6196,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>77</v>
@@ -6217,7 +6218,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>36982</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="15" t="s">
         <v>169</v>
@@ -6263,7 +6264,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>37012</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>37043</v>
       </c>
@@ -6309,7 +6310,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>37073</v>
       </c>
@@ -6329,7 +6330,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>37104</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>82</v>
@@ -6377,7 +6378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37135</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>174</v>
@@ -6425,7 +6426,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>37165</v>
       </c>
@@ -6449,7 +6450,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>104</v>
@@ -6469,7 +6470,7 @@
         <v>36933</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37196</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>176</v>
@@ -6515,7 +6516,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>37226</v>
       </c>
@@ -6539,7 +6540,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="51" t="s">
         <v>178</v>
       </c>
@@ -6557,7 +6558,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>37257</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>37316</v>
       </c>
@@ -6631,7 +6632,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>37347</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>379</v>
@@ -6677,7 +6678,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>37377</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -6725,7 +6726,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>37408</v>
       </c>
@@ -6745,7 +6746,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>37438</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="15" t="s">
         <v>409</v>
@@ -6791,7 +6792,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>37469</v>
       </c>
@@ -6815,7 +6816,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>37500</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>148</v>
@@ -6861,7 +6862,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>104</v>
@@ -6881,7 +6882,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>37530</v>
       </c>
@@ -6905,7 +6906,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>37561</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="15" t="s">
         <v>77</v>
@@ -6951,7 +6952,7 @@
       <c r="J178" s="12"/>
       <c r="K178" s="15"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>37591</v>
       </c>
@@ -6971,7 +6972,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>189</v>
       </c>
@@ -6991,7 +6992,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>37622</v>
       </c>
@@ -7013,7 +7014,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>37653</v>
       </c>
@@ -7033,7 +7034,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>37681</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41">
         <v>37712</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>37742</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>37773</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>82</v>
@@ -7161,7 +7162,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>181</v>
@@ -7181,7 +7182,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41">
         <v>37803</v>
       </c>
@@ -7201,7 +7202,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37834</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>37865</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>67</v>
@@ -7275,7 +7276,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>77</v>
@@ -7295,7 +7296,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>37895</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>37874</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37926</v>
       </c>
@@ -7345,7 +7346,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>37956</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>67</v>
@@ -7393,7 +7394,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>67</v>
@@ -7415,7 +7416,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="15" t="s">
         <v>197</v>
@@ -7435,7 +7436,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23" t="s">
         <v>201</v>
       </c>
@@ -7453,7 +7454,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -7477,7 +7478,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>38018</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>202</v>
@@ -7523,7 +7524,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>61</v>
@@ -7547,7 +7548,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38047</v>
       </c>
@@ -7567,7 +7568,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41"/>
       <c r="B206" s="15" t="s">
         <v>206</v>
@@ -7585,7 +7586,7 @@
       <c r="J206" s="12"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38078</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>38108</v>
       </c>
@@ -7637,7 +7638,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>67</v>
@@ -7659,7 +7660,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>67</v>
@@ -7679,7 +7680,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>208</v>
@@ -7699,7 +7700,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>38139</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>558</v>
@@ -7745,7 +7746,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38169</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38200</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>67</v>
@@ -7819,7 +7820,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>212</v>
@@ -7841,7 +7842,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>38231</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>215</v>
@@ -7887,7 +7888,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41">
         <v>38261</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>217</v>
@@ -7933,7 +7934,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>38292</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>218</v>
@@ -7979,7 +7980,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>38322</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>219</v>
@@ -8025,7 +8026,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="51" t="s">
         <v>221</v>
       </c>
@@ -8043,7 +8044,7 @@
       <c r="J226" s="12"/>
       <c r="K226" s="15"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>38353</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>104</v>
@@ -8089,7 +8090,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>225</v>
@@ -8109,7 +8110,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>38384</v>
       </c>
@@ -8133,7 +8134,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>38412</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -8181,7 +8182,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>226</v>
@@ -8201,7 +8202,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>38443</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>38537</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>67</v>
@@ -8247,7 +8248,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>228</v>
@@ -8265,7 +8266,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41">
         <v>38473</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>230</v>
@@ -8311,7 +8312,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39600</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>409</v>
@@ -8355,7 +8356,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>231</v>
@@ -8375,7 +8376,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>38534</v>
       </c>
@@ -8401,7 +8402,7 @@
         <v>38479</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>67</v>
@@ -8423,7 +8424,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>234</v>
@@ -8443,7 +8444,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>38565</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>38694</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>222</v>
@@ -8491,7 +8492,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>236</v>
@@ -8511,7 +8512,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>38596</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>238</v>
@@ -8559,7 +8560,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>239</v>
@@ -8581,7 +8582,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>243</v>
@@ -8601,7 +8602,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>61</v>
@@ -8623,7 +8624,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>104</v>
@@ -8643,7 +8644,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>38626</v>
       </c>
@@ -8667,7 +8668,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>38657</v>
       </c>
@@ -8693,7 +8694,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>409</v>
@@ -8715,7 +8716,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>217</v>
@@ -8735,7 +8736,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>38687</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>67</v>
@@ -8783,7 +8784,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>67</v>
@@ -8805,7 +8806,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>249</v>
@@ -8825,7 +8826,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23" t="s">
         <v>253</v>
       </c>
@@ -8843,7 +8844,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="41">
         <v>38718</v>
       </c>
@@ -8867,7 +8868,7 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>67</v>
@@ -8889,7 +8890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>104</v>
@@ -8909,7 +8910,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>104</v>
@@ -8927,7 +8928,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>254</v>
@@ -8947,7 +8948,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>38749</v>
       </c>
@@ -8971,7 +8972,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>38777</v>
       </c>
@@ -8995,7 +8996,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>38808</v>
       </c>
@@ -9019,7 +9020,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>260</v>
@@ -9041,7 +9042,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>409</v>
@@ -9063,7 +9064,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>38838</v>
       </c>
@@ -9087,7 +9088,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="41">
         <v>38869</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>264</v>
@@ -9133,7 +9134,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>230</v>
@@ -9153,7 +9154,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>409</v>
@@ -9175,7 +9176,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>409</v>
@@ -9197,7 +9198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>231</v>
@@ -9215,7 +9216,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>38899</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>67</v>
@@ -9263,7 +9264,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>234</v>
@@ -9281,7 +9282,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>38930</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>270</v>
@@ -9327,7 +9328,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>38961</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>271</v>
@@ -9373,7 +9374,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="41">
         <v>38991</v>
       </c>
@@ -9397,7 +9398,7 @@
       <c r="J287" s="12"/>
       <c r="K287" s="15"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>39022</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>274</v>
@@ -9443,7 +9444,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>39052</v>
       </c>
@@ -9469,7 +9470,7 @@
         <v>38941</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>82</v>
@@ -9491,7 +9492,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="41"/>
       <c r="B292" s="15" t="s">
         <v>276</v>
@@ -9509,7 +9510,7 @@
       <c r="J292" s="12"/>
       <c r="K292" s="15"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="48" t="s">
         <v>278</v>
       </c>
@@ -9527,7 +9528,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39083</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>279</v>
@@ -9571,7 +9572,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>280</v>
@@ -9591,7 +9592,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="15"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39114</v>
       </c>
@@ -9617,7 +9618,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>67</v>
@@ -9639,7 +9640,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>283</v>
@@ -9659,7 +9660,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="15"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>39142</v>
       </c>
@@ -9683,7 +9684,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>39173</v>
       </c>
@@ -9707,7 +9708,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>39203</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>61</v>
@@ -9755,7 +9756,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>289</v>
@@ -9775,7 +9776,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>39234</v>
       </c>
@@ -9799,7 +9800,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>39264</v>
       </c>
@@ -9823,7 +9824,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39295</v>
       </c>
@@ -9849,7 +9850,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>294</v>
@@ -9869,7 +9870,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>39326</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>296</v>
@@ -9915,7 +9916,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39356</v>
       </c>
@@ -9939,7 +9940,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>39387</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>67</v>
@@ -9987,7 +9988,7 @@
         <v>39184</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>299</v>
@@ -10007,7 +10008,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39417</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>300</v>
@@ -10053,7 +10054,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23" t="s">
         <v>302</v>
       </c>
@@ -10071,7 +10072,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>39448</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>104</v>
@@ -10117,7 +10118,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>303</v>
@@ -10135,7 +10136,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="41">
         <v>39479</v>
       </c>
@@ -10161,7 +10162,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>307</v>
@@ -10181,7 +10182,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>39508</v>
       </c>
@@ -10203,7 +10204,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>288</v>
@@ -10225,7 +10226,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>308</v>
@@ -10247,7 +10248,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>39539</v>
       </c>
@@ -10273,7 +10274,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>104</v>
@@ -10293,7 +10294,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>311</v>
@@ -10313,7 +10314,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>39569</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="41"/>
       <c r="B330" s="15" t="s">
         <v>313</v>
@@ -10359,7 +10360,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>39600</v>
       </c>
@@ -10383,7 +10384,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>39630</v>
       </c>
@@ -10409,7 +10410,7 @@
         <v>39485</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>67</v>
@@ -10431,7 +10432,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>316</v>
@@ -10451,7 +10452,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>39661</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>317</v>
@@ -10497,7 +10498,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>39692</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>67</v>
@@ -10547,7 +10548,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41"/>
       <c r="B339" s="15" t="s">
         <v>319</v>
@@ -10565,7 +10566,7 @@
       <c r="J339" s="12"/>
       <c r="K339" s="15"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>39722</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>322</v>
@@ -10611,7 +10612,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>39753</v>
       </c>
@@ -10637,7 +10638,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>239</v>
@@ -10659,7 +10660,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>324</v>
@@ -10679,7 +10680,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>39783</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>327</v>
@@ -10725,7 +10726,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="48" t="s">
         <v>329</v>
       </c>
@@ -10743,7 +10744,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>39814</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>239</v>
@@ -10791,7 +10792,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>104</v>
@@ -10811,7 +10812,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="41"/>
       <c r="B351" s="15" t="s">
         <v>330</v>
@@ -10831,7 +10832,7 @@
       <c r="J351" s="12"/>
       <c r="K351" s="15"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>39845</v>
       </c>
@@ -10857,7 +10858,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>104</v>
@@ -10877,7 +10878,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>174</v>
@@ -10897,7 +10898,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>39873</v>
       </c>
@@ -10921,7 +10922,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>39904</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>338</v>
@@ -10967,7 +10968,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="41">
         <v>39934</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>337</v>
@@ -11015,7 +11016,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>340</v>
@@ -11035,7 +11036,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>39965</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>104</v>
@@ -11081,7 +11082,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>343</v>
@@ -11101,7 +11102,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>39995</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>206</v>
@@ -11147,7 +11148,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40026</v>
       </c>
@@ -11171,7 +11172,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="41">
         <v>40057</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>345</v>
@@ -11217,7 +11218,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>40087</v>
       </c>
@@ -11241,7 +11242,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>40118</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>347</v>
@@ -11287,7 +11288,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="41">
         <v>40148</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>131</v>
@@ -11333,7 +11334,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>349</v>
@@ -11355,7 +11356,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="48" t="s">
         <v>352</v>
       </c>
@@ -11373,7 +11374,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>40179</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>353</v>
@@ -11417,7 +11418,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="41">
         <v>40210</v>
       </c>
@@ -11441,7 +11442,7 @@
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>40238</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>40240</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>356</v>
@@ -11487,7 +11488,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>40269</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>67</v>
@@ -11535,7 +11536,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>67</v>
@@ -11557,7 +11558,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>359</v>
@@ -11577,7 +11578,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>40303</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>67</v>
@@ -11622,7 +11623,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>360</v>
@@ -11639,7 +11640,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>40334</v>
       </c>
@@ -11665,7 +11666,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>361</v>
@@ -11682,7 +11683,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>40364</v>
       </c>
@@ -11706,7 +11707,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>40395</v>
       </c>
@@ -11732,7 +11733,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>363</v>
@@ -11749,7 +11750,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>40426</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>365</v>
@@ -11792,7 +11793,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>40456</v>
       </c>
@@ -11816,7 +11817,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>40487</v>
       </c>
@@ -11844,7 +11845,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>368</v>
@@ -11863,7 +11864,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>152</v>
@@ -11882,7 +11883,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>40517</v>
       </c>
@@ -11906,7 +11907,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="48" t="s">
         <v>376</v>
       </c>
@@ -11924,7 +11925,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>40544</v>
       </c>
@@ -11948,7 +11949,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>40575</v>
       </c>
@@ -11972,7 +11973,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>40603</v>
       </c>
@@ -11996,7 +11997,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>380</v>
@@ -12013,7 +12014,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>40634</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>381</v>
@@ -12056,7 +12057,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>40664</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>362</v>
@@ -12101,7 +12102,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>382</v>
@@ -12118,7 +12119,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>40695</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>390</v>
@@ -12163,7 +12164,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>383</v>
@@ -12180,7 +12181,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>40725</v>
       </c>
@@ -12206,7 +12207,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>384</v>
@@ -12223,7 +12224,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>40756</v>
       </c>
@@ -12247,7 +12248,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>40787</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>386</v>
@@ -12290,7 +12291,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>40817</v>
       </c>
@@ -12314,7 +12315,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>40848</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="15" t="s">
         <v>379</v>
@@ -12358,7 +12359,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="15" t="s">
         <v>364</v>
@@ -12380,7 +12381,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="15" t="s">
         <v>388</v>
@@ -12400,7 +12401,7 @@
       <c r="J422" s="12"/>
       <c r="K422" s="15"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="15" t="s">
         <v>362</v>
@@ -12422,7 +12423,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>40878</v>
       </c>
@@ -12448,7 +12449,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>176</v>
@@ -12468,7 +12469,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="48" t="s">
         <v>401</v>
       </c>
@@ -12486,7 +12487,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>40909</v>
       </c>
@@ -12508,7 +12509,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>402</v>
@@ -12528,7 +12529,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>40940</v>
       </c>
@@ -12552,7 +12553,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>40969</v>
       </c>
@@ -12576,7 +12577,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>41000</v>
       </c>
@@ -12600,7 +12601,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>41030</v>
       </c>
@@ -12624,7 +12625,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>41061</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>362</v>
@@ -12670,7 +12671,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>405</v>
@@ -12690,7 +12691,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>41091</v>
       </c>
@@ -12714,7 +12715,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>41122</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>41190</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>407</v>
@@ -12760,7 +12761,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41153</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>408</v>
@@ -12806,7 +12807,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>41183</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>379</v>
@@ -12852,7 +12853,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>362</v>
@@ -12874,7 +12875,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>410</v>
@@ -12894,7 +12895,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>41214</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>415</v>
@@ -12939,7 +12940,7 @@
         <v>41225</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>415</v>
@@ -12958,7 +12959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>416</v>
@@ -12975,7 +12976,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41244</v>
       </c>
@@ -12999,7 +13000,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="48" t="s">
         <v>420</v>
       </c>
@@ -13017,7 +13018,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>41275</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>379</v>
@@ -13058,7 +13059,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>421</v>
@@ -13075,7 +13076,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>41306</v>
       </c>
@@ -13101,7 +13102,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>421</v>
@@ -13118,7 +13119,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>41334</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>422</v>
@@ -13161,7 +13162,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>41365</v>
       </c>
@@ -13187,7 +13188,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>368</v>
@@ -13206,7 +13207,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>423</v>
@@ -13223,7 +13224,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>41395</v>
       </c>
@@ -13247,7 +13248,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>41426</v>
       </c>
@@ -13271,7 +13272,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>41456</v>
       </c>
@@ -13291,7 +13292,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>41487</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>369</v>
@@ -13334,7 +13335,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="49"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>41518</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>430</v>
@@ -13379,7 +13380,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>432</v>
@@ -13396,7 +13397,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>41548</v>
       </c>
@@ -13420,7 +13421,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>41579</v>
       </c>
@@ -13442,7 +13443,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>433</v>
@@ -13459,7 +13460,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>41609</v>
       </c>
@@ -13485,7 +13486,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -13507,7 +13508,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>434</v>
@@ -13527,7 +13528,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="48" t="s">
         <v>437</v>
       </c>
@@ -13545,7 +13546,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>41640</v>
       </c>
@@ -13569,7 +13570,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>41671</v>
       </c>
@@ -13595,7 +13596,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>438</v>
@@ -13612,7 +13613,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>41699</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>439</v>
@@ -13655,7 +13656,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41730</v>
       </c>
@@ -13679,7 +13680,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>41760</v>
       </c>
@@ -13705,7 +13706,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>441</v>
@@ -13722,7 +13723,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>41791</v>
       </c>
@@ -13748,7 +13749,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>362</v>
@@ -13765,7 +13766,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>446</v>
@@ -13782,7 +13783,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>41821</v>
       </c>
@@ -13806,7 +13807,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>362</v>
@@ -13823,7 +13824,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>77</v>
@@ -13840,7 +13841,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>41852</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>365</v>
@@ -13883,7 +13884,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>41883</v>
       </c>
@@ -13907,7 +13908,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>367</v>
@@ -13924,7 +13925,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>449</v>
@@ -13941,7 +13942,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>41913</v>
       </c>
@@ -13965,7 +13966,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>41944</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>367</v>
@@ -14006,7 +14007,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>447</v>
@@ -14023,7 +14024,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>41974</v>
       </c>
@@ -14047,7 +14048,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="48" t="s">
         <v>458</v>
       </c>
@@ -14065,7 +14066,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>42005</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>415</v>
@@ -14108,7 +14109,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>362</v>
@@ -14127,7 +14128,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>459</v>
@@ -14144,7 +14145,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>42036</v>
       </c>
@@ -14168,7 +14169,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42064</v>
       </c>
@@ -14192,7 +14193,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>42095</v>
       </c>
@@ -14218,7 +14219,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>563</v>
@@ -14235,7 +14236,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>42125</v>
       </c>
@@ -14261,7 +14262,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>190</v>
@@ -14278,7 +14279,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42156</v>
       </c>
@@ -14302,7 +14303,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>42186</v>
       </c>
@@ -14328,7 +14329,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>464</v>
@@ -14345,7 +14346,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>42217</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>179</v>
@@ -14388,7 +14389,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42248</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>465</v>
@@ -14431,7 +14432,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>362</v>
@@ -14450,7 +14451,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>466</v>
@@ -14467,7 +14468,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42278</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>179</v>
@@ -14510,7 +14511,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>42309</v>
       </c>
@@ -14536,7 +14537,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>362</v>
@@ -14555,7 +14556,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>104</v>
@@ -14572,7 +14573,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>367</v>
@@ -14591,7 +14592,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>362</v>
@@ -14608,7 +14609,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>218</v>
@@ -14625,7 +14626,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>42339</v>
       </c>
@@ -14649,7 +14650,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="48" t="s">
         <v>474</v>
       </c>
@@ -14667,7 +14668,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>42370</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>480</v>
@@ -14708,7 +14709,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42401</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>283</v>
@@ -14751,7 +14752,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>42430</v>
       </c>
@@ -14775,7 +14776,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42461</v>
       </c>
@@ -14799,7 +14800,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42491</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>432</v>
@@ -14842,7 +14843,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42522</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>483</v>
@@ -14885,7 +14886,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>42552</v>
       </c>
@@ -14909,7 +14910,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>42583</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>362</v>
@@ -14954,7 +14955,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>485</v>
@@ -14971,7 +14972,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>42614</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>409</v>
@@ -15016,7 +15017,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>493</v>
@@ -15033,7 +15034,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>42644</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>362</v>
@@ -15078,7 +15079,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>362</v>
@@ -15095,7 +15096,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>107</v>
@@ -15112,7 +15113,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>42675</v>
       </c>
@@ -15136,7 +15137,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42705</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>494</v>
@@ -15179,7 +15180,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="48" t="s">
         <v>492</v>
       </c>
@@ -15197,7 +15198,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>42736</v>
       </c>
@@ -15221,7 +15222,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>500</v>
@@ -15238,7 +15239,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>42767</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>501</v>
@@ -15281,7 +15282,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>42795</v>
       </c>
@@ -15305,7 +15306,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>42826</v>
       </c>
@@ -15329,7 +15330,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>42856</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -15375,7 +15376,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -15395,7 +15396,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>42948</v>
       </c>
@@ -15419,7 +15420,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>67</v>
@@ -15436,7 +15437,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>506</v>
@@ -15453,7 +15454,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42979</v>
       </c>
@@ -15477,7 +15478,7 @@
         <v>43048</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>362</v>
@@ -15494,7 +15495,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>507</v>
@@ -15513,7 +15514,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>508</v>
@@ -15530,7 +15531,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>43009</v>
       </c>
@@ -15554,7 +15555,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43040</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>43070</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>43051</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="48" t="s">
         <v>512</v>
       </c>
@@ -15620,7 +15621,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>43101</v>
       </c>
@@ -15644,7 +15645,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>379</v>
@@ -15661,7 +15662,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>43132</v>
       </c>
@@ -15681,7 +15682,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43160</v>
       </c>
@@ -15701,7 +15702,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43191</v>
       </c>
@@ -15727,7 +15728,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>82</v>
@@ -15744,7 +15745,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>43221</v>
       </c>
@@ -15768,7 +15769,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>362</v>
@@ -15785,7 +15786,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>43252</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>409</v>
@@ -15826,7 +15827,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>362</v>
@@ -15843,7 +15844,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43282</v>
       </c>
@@ -15863,7 +15864,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43313</v>
       </c>
@@ -15887,7 +15888,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>409</v>
@@ -15904,7 +15905,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>43344</v>
       </c>
@@ -15924,7 +15925,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>43374</v>
       </c>
@@ -15944,7 +15945,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>43405</v>
       </c>
@@ -15970,7 +15971,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>43435</v>
       </c>
@@ -15994,7 +15995,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="48" t="s">
         <v>523</v>
       </c>
@@ -16012,7 +16013,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>43466</v>
       </c>
@@ -16036,7 +16037,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>379</v>
@@ -16053,7 +16054,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>43497</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>43525</v>
       </c>
@@ -16099,7 +16100,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>43556</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>43586</v>
       </c>
@@ -16145,7 +16146,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>43617</v>
       </c>
@@ -16165,7 +16166,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>43647</v>
       </c>
@@ -16185,7 +16186,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43678</v>
       </c>
@@ -16211,7 +16212,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>362</v>
@@ -16230,7 +16231,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>362</v>
@@ -16249,7 +16250,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43709</v>
       </c>
@@ -16269,7 +16270,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>43739</v>
       </c>
@@ -16289,7 +16290,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>43770</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>367</v>
@@ -16332,7 +16333,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43800</v>
       </c>
@@ -16358,7 +16359,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>67</v>
@@ -16380,7 +16381,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="48" t="s">
         <v>534</v>
       </c>
@@ -16398,7 +16399,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43831</v>
       </c>
@@ -16422,7 +16423,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>43862</v>
       </c>
@@ -16442,7 +16443,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>43891</v>
       </c>
@@ -16462,7 +16463,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>43922</v>
       </c>
@@ -16482,7 +16483,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>43952</v>
       </c>
@@ -16502,7 +16503,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>43983</v>
       </c>
@@ -16522,7 +16523,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44013</v>
       </c>
@@ -16544,7 +16545,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>44044</v>
       </c>
@@ -16564,7 +16565,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>44075</v>
       </c>
@@ -16584,7 +16585,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>44105</v>
       </c>
@@ -16604,7 +16605,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44136</v>
       </c>
@@ -16624,7 +16625,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>44166</v>
       </c>
@@ -16648,7 +16649,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="48" t="s">
         <v>537</v>
       </c>
@@ -16666,7 +16667,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>44197</v>
       </c>
@@ -16686,7 +16687,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>44228</v>
       </c>
@@ -16706,7 +16707,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>44256</v>
       </c>
@@ -16726,7 +16727,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44287</v>
       </c>
@@ -16746,7 +16747,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>44317</v>
       </c>
@@ -16766,7 +16767,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>44348</v>
       </c>
@@ -16786,7 +16787,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>44378</v>
       </c>
@@ -16806,7 +16807,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>44409</v>
       </c>
@@ -16826,7 +16827,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>44440</v>
       </c>
@@ -16846,7 +16847,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>44470</v>
       </c>
@@ -16866,7 +16867,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>44501</v>
       </c>
@@ -16886,7 +16887,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>44531</v>
       </c>
@@ -16910,7 +16911,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="48" t="s">
         <v>538</v>
       </c>
@@ -16928,7 +16929,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>44562</v>
       </c>
@@ -16948,7 +16949,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>44593</v>
       </c>
@@ -16968,7 +16969,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>44621</v>
       </c>
@@ -16992,7 +16993,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>549</v>
@@ -17014,7 +17015,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>465</v>
@@ -17033,7 +17034,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>551</v>
@@ -17053,7 +17054,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>44652</v>
       </c>
@@ -17077,7 +17078,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>44682</v>
       </c>
@@ -17101,7 +17102,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>44713</v>
       </c>
@@ -17125,7 +17126,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>379</v>
@@ -17142,7 +17143,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>367</v>
@@ -17161,7 +17162,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>514</v>
@@ -17180,7 +17181,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>551</v>
@@ -17200,7 +17201,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44743</v>
       </c>
@@ -17224,7 +17225,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44774</v>
       </c>
@@ -17250,7 +17251,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>129</v>
@@ -17270,7 +17271,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="49"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>44805</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>202</v>
@@ -17316,7 +17317,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="49"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44835</v>
       </c>
@@ -17340,7 +17341,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44866</v>
       </c>
@@ -17366,7 +17367,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>154</v>
@@ -17386,7 +17387,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="49"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>44896</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>550</v>
@@ -17432,7 +17433,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="49"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="48" t="s">
         <v>544</v>
       </c>
@@ -17450,7 +17451,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <v>44957</v>
       </c>
@@ -17476,7 +17477,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>567</v>
@@ -17498,7 +17499,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
         <v>573</v>
@@ -17518,7 +17519,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44985</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>571</v>
@@ -17564,7 +17565,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>45016</v>
       </c>
@@ -17590,7 +17591,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>481</v>
@@ -17610,7 +17611,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>45046</v>
       </c>
@@ -17636,7 +17637,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>45077</v>
       </c>
@@ -17656,7 +17657,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>45107</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>502</v>
@@ -17702,7 +17703,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>45138</v>
       </c>
@@ -17726,7 +17727,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
         <v>549</v>
@@ -17748,7 +17749,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20" t="s">
         <v>152</v>
@@ -17768,7 +17769,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="49"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>45169</v>
       </c>
@@ -17794,7 +17795,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>176</v>
@@ -17814,7 +17815,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="49"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>45199</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>385</v>
@@ -17860,7 +17861,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>45230</v>
       </c>
@@ -17886,7 +17887,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>566</v>
@@ -17906,7 +17907,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>45260</v>
       </c>
@@ -17932,7 +17933,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>565</v>
@@ -17952,7 +17953,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="49"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>45291</v>
       </c>
@@ -17976,7 +17977,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="49"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="48" t="s">
         <v>562</v>
       </c>
@@ -17994,192 +17995,214 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>45322</v>
       </c>
       <c r="B686" s="20"/>
-      <c r="C686" s="13"/>
+      <c r="C686" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
       <c r="F686" s="20"/>
-      <c r="G686" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G686" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H686" s="39"/>
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>45351</v>
       </c>
       <c r="B687" s="20"/>
-      <c r="C687" s="13"/>
+      <c r="C687" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G687" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H687" s="39"/>
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <v>45382</v>
       </c>
       <c r="B688" s="20"/>
-      <c r="C688" s="13"/>
+      <c r="C688" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D688" s="39"/>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G688" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>45412</v>
       </c>
       <c r="B689" s="20"/>
-      <c r="C689" s="13"/>
+      <c r="C689" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D689" s="39"/>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G689" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H689" s="39"/>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>45443</v>
       </c>
       <c r="B690" s="20"/>
-      <c r="C690" s="13"/>
+      <c r="C690" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G690" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H690" s="39"/>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>45473</v>
       </c>
       <c r="B691" s="20"/>
-      <c r="C691" s="13"/>
+      <c r="C691" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D691" s="39"/>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
-      <c r="G691" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G691" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>45504</v>
       </c>
       <c r="B692" s="20"/>
-      <c r="C692" s="13"/>
+      <c r="C692" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D692" s="39"/>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
-      <c r="G692" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G692" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H692" s="39"/>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>45535</v>
       </c>
       <c r="B693" s="20"/>
-      <c r="C693" s="13"/>
+      <c r="C693" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D693" s="39"/>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G693" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H693" s="39"/>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>45565</v>
       </c>
       <c r="B694" s="20"/>
-      <c r="C694" s="13"/>
+      <c r="C694" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G694" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H694" s="39"/>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <v>45596</v>
       </c>
       <c r="B695" s="20"/>
-      <c r="C695" s="13"/>
+      <c r="C695" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G695" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
         <v>45616</v>
       </c>
       <c r="B696" s="20"/>
-      <c r="C696" s="13"/>
+      <c r="C696" s="13">
+        <v>0.83300000000000018</v>
+      </c>
       <c r="D696" s="39"/>
       <c r="E696" s="9"/>
       <c r="F696" s="20"/>
@@ -18189,7 +18212,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18205,7 +18228,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18221,7 +18244,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18237,7 +18260,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18253,7 +18276,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18269,7 +18292,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18285,7 +18308,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18301,7 +18324,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18317,7 +18340,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18333,7 +18356,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18349,7 +18372,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18365,7 +18388,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18381,7 +18404,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18397,7 +18420,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18413,7 +18436,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18429,7 +18452,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18445,7 +18468,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18461,7 +18484,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18477,7 +18500,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18493,7 +18516,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18509,7 +18532,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18525,7 +18548,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18541,7 +18564,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18557,7 +18580,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18573,7 +18596,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18589,7 +18612,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18605,7 +18628,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18621,7 +18644,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18637,7 +18660,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18653,7 +18676,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18669,7 +18692,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18685,7 +18708,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18701,7 +18724,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="41"/>
       <c r="B729" s="15"/>
       <c r="C729" s="42"/>
@@ -18732,10 +18755,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18758,28 +18781,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -18792,7 +18815,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18821,7 +18844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18847,17 +18870,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>559</v>
       </c>
@@ -18881,10 +18904,10 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>388.7099</v>
+        <v>414.54289999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -18912,7 +18935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18938,7 +18961,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18964,7 +18987,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18990,7 +19013,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19016,7 +19039,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19042,7 +19065,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19068,7 +19091,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19094,7 +19117,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19114,7 +19137,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19134,7 +19157,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19154,7 +19177,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19175,7 +19198,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19196,7 +19219,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19217,7 +19240,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19238,7 +19261,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19259,7 +19282,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19280,7 +19303,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19301,7 +19324,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19322,7 +19345,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19343,7 +19366,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19364,7 +19387,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19385,7 +19408,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19406,7 +19429,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19427,7 +19450,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19448,7 +19471,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19469,7 +19492,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19490,7 +19513,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19511,7 +19534,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19532,7 +19555,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19553,7 +19576,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19574,7 +19597,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19583,7 +19606,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19592,7 +19615,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19601,7 +19624,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19610,7 +19633,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19619,7 +19642,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19628,7 +19651,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19637,7 +19660,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19646,7 +19669,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19655,7 +19678,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19664,7 +19687,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19673,7 +19696,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19682,7 +19705,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19691,7 +19714,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19700,7 +19723,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19709,7 +19732,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19718,7 +19741,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19727,7 +19750,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19736,7 +19759,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19745,7 +19768,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19754,7 +19777,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19763,7 +19786,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19772,7 +19795,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19781,7 +19804,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19790,7 +19813,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19799,7 +19822,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19808,7 +19831,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19817,7 +19840,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19826,7 +19849,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19835,7 +19858,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
